--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H2">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N2">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q2">
-        <v>1.192984066458333</v>
+        <v>0.3891237076011112</v>
       </c>
       <c r="R2">
-        <v>10.736856598125</v>
+        <v>3.50211336841</v>
       </c>
       <c r="S2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="T2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H3">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q3">
-        <v>0.5087543047222223</v>
+        <v>0.7778656072511112</v>
       </c>
       <c r="R3">
-        <v>4.5787887425</v>
+        <v>7.000790465260001</v>
       </c>
       <c r="S3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="T3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H4">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N4">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q4">
-        <v>0.186984319375</v>
+        <v>0.3262243739073333</v>
       </c>
       <c r="R4">
-        <v>1.682858874375</v>
+        <v>2.936019365166</v>
       </c>
       <c r="S4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="T4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
     </row>
   </sheetData>
